--- a/Архитектура/Функции и сервисы СМ4 для переноса (2014-02-17).xlsx
+++ b/Архитектура/Функции и сервисы СМ4 для переноса (2014-02-17).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="846">
   <si>
     <t>Оценка полноты</t>
   </si>
@@ -2514,7 +2514,112 @@
     <t>Ответственный</t>
   </si>
   <si>
-    <t>Подсистема</t>
+    <t>Реализуется через</t>
+  </si>
+  <si>
+    <t>mapper, collections</t>
+  </si>
+  <si>
+    <t>mapper</t>
+  </si>
+  <si>
+    <t>dop,mapper,agent</t>
+  </si>
+  <si>
+    <t>dop,mapper,collections</t>
+  </si>
+  <si>
+    <t>collections</t>
+  </si>
+  <si>
+    <t>core, config</t>
+  </si>
+  <si>
+    <t>collections, ft-search</t>
+  </si>
+  <si>
+    <t>ft-search, collections</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>zabbix, jboss, melody</t>
+  </si>
+  <si>
+    <t>Ларин, ЦТС</t>
+  </si>
+  <si>
+    <t>triggers, config</t>
+  </si>
+  <si>
+    <t>core, core-config</t>
+  </si>
+  <si>
+    <t>dop,mapper,collections, core-config</t>
+  </si>
+  <si>
+    <t>Околот</t>
+  </si>
+  <si>
+    <t>core, jboss, config</t>
+  </si>
+  <si>
+    <t>Ноздрачёв, Еренцов</t>
+  </si>
+  <si>
+    <t>ui-collections</t>
+  </si>
+  <si>
+    <t>core, admin-arm</t>
+  </si>
+  <si>
+    <t>cm-gui, reporter</t>
+  </si>
+  <si>
+    <t>dop, mapper</t>
+  </si>
+  <si>
+    <t>dop, mapper, wf</t>
+  </si>
+  <si>
+    <t>dop, mapper, core-config</t>
+  </si>
+  <si>
+    <t>dop, mapper,collecions</t>
+  </si>
+  <si>
+    <t>reporter, dop, mapper</t>
+  </si>
+  <si>
+    <t>admin-gui</t>
+  </si>
+  <si>
+    <t>admin-gui, core-config</t>
+  </si>
+  <si>
+    <t>xxx-gui</t>
+  </si>
+  <si>
+    <t>agent</t>
+  </si>
+  <si>
+    <t>core-config</t>
+  </si>
+  <si>
+    <t>dop, mapper, ui-collections</t>
+  </si>
+  <si>
+    <t>reporter, agent</t>
+  </si>
+  <si>
+    <t>reporter</t>
+  </si>
+  <si>
+    <t>collections, dop, mappers</t>
+  </si>
+  <si>
+    <t>xxx-gui, core-config</t>
   </si>
 </sst>
 </file>
@@ -3091,6 +3196,24 @@
   <dxfs count="49">
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3112,24 +3235,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3961,7 +4066,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:P112" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:P112">
     <filterColumn colId="1">
-      <filters blank="1">
+      <filters>
         <filter val="!"/>
       </filters>
     </filterColumn>
@@ -3989,15 +4094,15 @@
     <tableColumn id="11" name="Примечание" dataDxfId="5"/>
     <tableColumn id="12" name="Подсистема _x000a_(группа объектов CM5)" dataDxfId="4"/>
     <tableColumn id="13" name="модуль-потребитель" dataDxfId="3"/>
-    <tableColumn id="14" name="Ответственный" dataDxfId="1"/>
-    <tableColumn id="15" name="Подсистема" dataDxfId="0"/>
+    <tableColumn id="14" name="Ответственный" dataDxfId="2"/>
+    <tableColumn id="15" name="Реализуется через" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A1:D37" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A1:D37" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:D37"/>
   <tableColumns count="4">
     <tableColumn id="1" name="№"/>
@@ -4319,7 +4424,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -4361,7 +4466,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -4384,7 +4489,7 @@
   <dimension ref="A1:Q162"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D155" sqref="D155"/>
     </sheetView>
   </sheetViews>
@@ -9244,7 +9349,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15.75"/>
@@ -9263,7 +9368,9 @@
     <col min="12" max="12" width="35.28515625" style="3" customWidth="1"/>
     <col min="13" max="13" width="12" style="3" customWidth="1"/>
     <col min="14" max="14" width="11.5703125" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="11.5703125" style="3"/>
+    <col min="15" max="15" width="11.5703125" style="3"/>
+    <col min="16" max="16" width="26.28515625" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="11.5703125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="63.75">
@@ -9341,7 +9448,9 @@
         <v>766</v>
       </c>
       <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
+      <c r="P2" s="75" t="s">
+        <v>823</v>
+      </c>
     </row>
     <row r="3" spans="1:16" s="23" customFormat="1" ht="30">
       <c r="A3" s="23">
@@ -9371,7 +9480,9 @@
         <v>766</v>
       </c>
       <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
+      <c r="P3" s="75" t="s">
+        <v>811</v>
+      </c>
     </row>
     <row r="4" spans="1:16" s="23" customFormat="1">
       <c r="A4" s="23">
@@ -9396,7 +9507,9 @@
         <v>766</v>
       </c>
       <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
+      <c r="P4" s="75" t="s">
+        <v>812</v>
+      </c>
     </row>
     <row r="5" spans="1:16" ht="39">
       <c r="A5" s="9">
@@ -9425,7 +9538,9 @@
       <c r="M5" s="9"/>
       <c r="N5" s="26"/>
       <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
+      <c r="P5" s="76" t="s">
+        <v>813</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="26.25" hidden="1">
       <c r="A6" s="9"/>
@@ -9519,7 +9634,7 @@
       <c r="O8" s="76"/>
       <c r="P8" s="76"/>
     </row>
-    <row r="9" spans="1:16" s="23" customFormat="1" ht="51.75">
+    <row r="9" spans="1:16" s="23" customFormat="1" ht="64.5">
       <c r="A9" s="23">
         <v>0</v>
       </c>
@@ -9544,7 +9659,9 @@
         <v>766</v>
       </c>
       <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
+      <c r="P9" s="76" t="s">
+        <v>814</v>
+      </c>
     </row>
     <row r="10" spans="1:16" s="23" customFormat="1" ht="39">
       <c r="A10" s="23">
@@ -9571,7 +9688,9 @@
         <v>766</v>
       </c>
       <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
+      <c r="P10" s="76" t="s">
+        <v>824</v>
+      </c>
     </row>
     <row r="11" spans="1:16" s="23" customFormat="1" ht="30">
       <c r="A11" s="23">
@@ -9599,7 +9718,9 @@
         <v>766</v>
       </c>
       <c r="O11" s="75"/>
-      <c r="P11" s="75"/>
+      <c r="P11" s="75" t="s">
+        <v>815</v>
+      </c>
     </row>
     <row r="12" spans="1:16" s="23" customFormat="1" ht="26.25">
       <c r="A12" s="23">
@@ -9626,7 +9747,9 @@
         <v>766</v>
       </c>
       <c r="O12" s="75"/>
-      <c r="P12" s="75"/>
+      <c r="P12" s="75" t="s">
+        <v>817</v>
+      </c>
     </row>
     <row r="13" spans="1:16" ht="26.25">
       <c r="A13" s="9">
@@ -9655,7 +9778,9 @@
       <c r="M13" s="9"/>
       <c r="N13" s="26"/>
       <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
+      <c r="P13" s="75" t="s">
+        <v>817</v>
+      </c>
     </row>
     <row r="14" spans="1:16" s="23" customFormat="1" ht="51.75" hidden="1">
       <c r="A14" s="23">
@@ -9720,7 +9845,9 @@
       <c r="M15" s="9"/>
       <c r="N15" s="26"/>
       <c r="O15" s="76"/>
-      <c r="P15" s="76"/>
+      <c r="P15" s="76" t="s">
+        <v>819</v>
+      </c>
     </row>
     <row r="16" spans="1:16" ht="26.25" hidden="1">
       <c r="A16" s="9"/>
@@ -9809,7 +9936,9 @@
       <c r="M18" s="9"/>
       <c r="N18" s="26"/>
       <c r="O18" s="76"/>
-      <c r="P18" s="76"/>
+      <c r="P18" s="76" t="s">
+        <v>818</v>
+      </c>
     </row>
     <row r="19" spans="1:16" s="23" customFormat="1" ht="26.25">
       <c r="A19" s="23">
@@ -9833,7 +9962,9 @@
         <v>475</v>
       </c>
       <c r="O19" s="75"/>
-      <c r="P19" s="75"/>
+      <c r="P19" s="75" t="s">
+        <v>816</v>
+      </c>
     </row>
     <row r="20" spans="1:16" s="23" customFormat="1" ht="39.6" customHeight="1">
       <c r="A20" s="23">
@@ -9863,7 +9994,9 @@
         <v>766</v>
       </c>
       <c r="O20" s="75"/>
-      <c r="P20" s="75"/>
+      <c r="P20" s="75" t="s">
+        <v>816</v>
+      </c>
     </row>
     <row r="21" spans="1:16" ht="30" customHeight="1">
       <c r="A21" s="9">
@@ -9893,7 +10026,9 @@
       <c r="M21" s="9"/>
       <c r="N21" s="26"/>
       <c r="O21" s="76"/>
-      <c r="P21" s="76"/>
+      <c r="P21" s="76" t="s">
+        <v>819</v>
+      </c>
     </row>
     <row r="22" spans="1:16" ht="54.6" hidden="1" customHeight="1">
       <c r="A22" s="9">
@@ -10083,7 +10218,7 @@
       <c r="O27" s="76"/>
       <c r="P27" s="76"/>
     </row>
-    <row r="28" spans="1:16" ht="28.15" customHeight="1">
+    <row r="28" spans="1:16" ht="41.25" customHeight="1">
       <c r="A28" s="9">
         <v>3</v>
       </c>
@@ -10112,7 +10247,9 @@
       <c r="M28" s="9"/>
       <c r="N28" s="26"/>
       <c r="O28" s="76"/>
-      <c r="P28" s="76"/>
+      <c r="P28" s="76" t="s">
+        <v>820</v>
+      </c>
     </row>
     <row r="29" spans="1:16" ht="39">
       <c r="A29" s="9">
@@ -10142,8 +10279,12 @@
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="26"/>
-      <c r="O29" s="76"/>
-      <c r="P29" s="76"/>
+      <c r="O29" s="76" t="s">
+        <v>821</v>
+      </c>
+      <c r="P29" s="76" t="s">
+        <v>822</v>
+      </c>
     </row>
     <row r="30" spans="1:16" s="23" customFormat="1" ht="124.5" hidden="1" customHeight="1">
       <c r="A30" s="23">
@@ -10203,8 +10344,12 @@
       <c r="L31" s="23" t="s">
         <v>798</v>
       </c>
-      <c r="O31" s="75"/>
-      <c r="P31" s="75"/>
+      <c r="O31" s="75" t="s">
+        <v>825</v>
+      </c>
+      <c r="P31" s="75" t="s">
+        <v>818</v>
+      </c>
     </row>
     <row r="32" spans="1:16" ht="42" customHeight="1">
       <c r="A32" s="9">
@@ -10238,7 +10383,9 @@
       <c r="O32" s="76" t="s">
         <v>806</v>
       </c>
-      <c r="P32" s="76"/>
+      <c r="P32" s="76" t="s">
+        <v>826</v>
+      </c>
     </row>
     <row r="33" spans="1:16" s="23" customFormat="1" ht="26.25">
       <c r="A33" s="23">
@@ -10261,8 +10408,12 @@
       <c r="K33" s="25" t="s">
         <v>491</v>
       </c>
-      <c r="O33" s="75"/>
-      <c r="P33" s="75"/>
+      <c r="O33" s="75" t="s">
+        <v>827</v>
+      </c>
+      <c r="P33" s="75" t="s">
+        <v>828</v>
+      </c>
     </row>
     <row r="34" spans="1:16" s="23" customFormat="1" ht="26.25">
       <c r="A34" s="23">
@@ -10288,8 +10439,12 @@
       <c r="N34" s="25" t="s">
         <v>766</v>
       </c>
-      <c r="O34" s="75"/>
-      <c r="P34" s="75"/>
+      <c r="O34" s="75" t="s">
+        <v>827</v>
+      </c>
+      <c r="P34" s="75" t="s">
+        <v>828</v>
+      </c>
     </row>
     <row r="35" spans="1:16" ht="39">
       <c r="A35" s="9">
@@ -10321,7 +10476,9 @@
       <c r="M35" s="9"/>
       <c r="N35" s="26"/>
       <c r="O35" s="76"/>
-      <c r="P35" s="76"/>
+      <c r="P35" s="76" t="s">
+        <v>823</v>
+      </c>
     </row>
     <row r="36" spans="1:16" s="23" customFormat="1" ht="75">
       <c r="A36" s="23">
@@ -10351,7 +10508,9 @@
       <c r="O36" s="75" t="s">
         <v>806</v>
       </c>
-      <c r="P36" s="75"/>
+      <c r="P36" s="75" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="37" spans="1:16" s="23" customFormat="1" ht="39" hidden="1">
       <c r="A37" s="23">
@@ -10406,7 +10565,9 @@
         <v>495</v>
       </c>
       <c r="O38" s="75"/>
-      <c r="P38" s="75"/>
+      <c r="P38" s="75" t="s">
+        <v>815</v>
+      </c>
     </row>
     <row r="39" spans="1:16" s="23" customFormat="1" ht="39">
       <c r="A39" s="23">
@@ -10430,7 +10591,9 @@
         <v>498</v>
       </c>
       <c r="O39" s="75"/>
-      <c r="P39" s="75"/>
+      <c r="P39" s="75" t="s">
+        <v>815</v>
+      </c>
     </row>
     <row r="40" spans="1:16" ht="64.5" hidden="1">
       <c r="A40" s="9"/>
@@ -10554,7 +10717,7 @@
       <c r="O43" s="76"/>
       <c r="P43" s="76"/>
     </row>
-    <row r="44" spans="1:16" ht="26.25">
+    <row r="44" spans="1:16" ht="38.25" customHeight="1">
       <c r="A44" s="9"/>
       <c r="C44" s="30">
         <v>41</v>
@@ -10579,7 +10742,9 @@
       <c r="M44" s="9"/>
       <c r="N44" s="26"/>
       <c r="O44" s="76"/>
-      <c r="P44" s="76"/>
+      <c r="P44" s="76" t="s">
+        <v>830</v>
+      </c>
     </row>
     <row r="45" spans="1:16" s="23" customFormat="1" ht="51.75">
       <c r="A45" s="23">
@@ -10606,7 +10771,9 @@
         <v>766</v>
       </c>
       <c r="O45" s="75"/>
-      <c r="P45" s="75"/>
+      <c r="P45" s="75" t="s">
+        <v>831</v>
+      </c>
     </row>
     <row r="46" spans="1:16" ht="64.5">
       <c r="A46" s="9">
@@ -10635,7 +10802,9 @@
       <c r="M46" s="9"/>
       <c r="N46" s="26"/>
       <c r="O46" s="76"/>
-      <c r="P46" s="76"/>
+      <c r="P46" s="75" t="s">
+        <v>831</v>
+      </c>
     </row>
     <row r="47" spans="1:16" ht="51.75" hidden="1">
       <c r="A47" s="9">
@@ -10725,7 +10894,9 @@
       <c r="M49" s="9"/>
       <c r="N49" s="26"/>
       <c r="O49" s="76"/>
-      <c r="P49" s="76"/>
+      <c r="P49" s="76" t="s">
+        <v>833</v>
+      </c>
     </row>
     <row r="50" spans="1:16" ht="26.25">
       <c r="A50" s="9">
@@ -10754,7 +10925,9 @@
       <c r="M50" s="9"/>
       <c r="N50" s="26"/>
       <c r="O50" s="76"/>
-      <c r="P50" s="76"/>
+      <c r="P50" s="75" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="51" spans="1:16" ht="82.9" customHeight="1">
       <c r="A51" s="9">
@@ -10788,7 +10961,9 @@
       <c r="M51" s="9"/>
       <c r="N51" s="26"/>
       <c r="O51" s="76"/>
-      <c r="P51" s="76"/>
+      <c r="P51" s="76" t="s">
+        <v>834</v>
+      </c>
     </row>
     <row r="52" spans="1:16" s="23" customFormat="1" ht="24.75" customHeight="1">
       <c r="A52" s="23">
@@ -10815,7 +10990,9 @@
         <v>766</v>
       </c>
       <c r="O52" s="75"/>
-      <c r="P52" s="75"/>
+      <c r="P52" s="75" t="s">
+        <v>835</v>
+      </c>
     </row>
     <row r="53" spans="1:16" ht="42" customHeight="1">
       <c r="A53" s="9">
@@ -10844,7 +11021,9 @@
       <c r="M53" s="9"/>
       <c r="N53" s="26"/>
       <c r="O53" s="76"/>
-      <c r="P53" s="76"/>
+      <c r="P53" s="76" t="s">
+        <v>836</v>
+      </c>
     </row>
     <row r="54" spans="1:16" ht="26.25">
       <c r="A54" s="9">
@@ -10873,9 +11052,11 @@
       <c r="M54" s="9"/>
       <c r="N54" s="26"/>
       <c r="O54" s="76"/>
-      <c r="P54" s="76"/>
-    </row>
-    <row r="55" spans="1:16" s="23" customFormat="1" ht="29.45" customHeight="1">
+      <c r="P54" s="76" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" s="23" customFormat="1" ht="50.25" customHeight="1">
       <c r="A55" s="23">
         <v>0</v>
       </c>
@@ -10897,7 +11078,9 @@
         <v>515</v>
       </c>
       <c r="O55" s="75"/>
-      <c r="P55" s="75"/>
+      <c r="P55" s="76" t="s">
+        <v>836</v>
+      </c>
     </row>
     <row r="56" spans="1:16" ht="39">
       <c r="A56" s="9">
@@ -10926,7 +11109,9 @@
       <c r="M56" s="9"/>
       <c r="N56" s="26"/>
       <c r="O56" s="76"/>
-      <c r="P56" s="76"/>
+      <c r="P56" s="76" t="s">
+        <v>837</v>
+      </c>
     </row>
     <row r="57" spans="1:16" ht="26.25">
       <c r="A57" s="9">
@@ -10955,7 +11140,9 @@
       <c r="M57" s="9"/>
       <c r="N57" s="26"/>
       <c r="O57" s="76"/>
-      <c r="P57" s="76"/>
+      <c r="P57" s="76" t="s">
+        <v>771</v>
+      </c>
     </row>
     <row r="58" spans="1:16" ht="39">
       <c r="A58" s="9">
@@ -10984,7 +11171,9 @@
       <c r="M58" s="9"/>
       <c r="N58" s="26"/>
       <c r="O58" s="76"/>
-      <c r="P58" s="76"/>
+      <c r="P58" s="76" t="s">
+        <v>838</v>
+      </c>
     </row>
     <row r="59" spans="1:16" ht="51.75">
       <c r="A59" s="9">
@@ -11013,7 +11202,9 @@
       <c r="M59" s="9"/>
       <c r="N59" s="26"/>
       <c r="O59" s="76"/>
-      <c r="P59" s="76"/>
+      <c r="P59" s="76" t="s">
+        <v>838</v>
+      </c>
     </row>
     <row r="60" spans="1:16" ht="54.6" customHeight="1">
       <c r="A60" s="9">
@@ -11042,7 +11233,9 @@
       <c r="M60" s="9"/>
       <c r="N60" s="26"/>
       <c r="O60" s="76"/>
-      <c r="P60" s="76"/>
+      <c r="P60" s="76" t="s">
+        <v>838</v>
+      </c>
     </row>
     <row r="61" spans="1:16" ht="79.5" hidden="1">
       <c r="A61" s="9">
@@ -11110,7 +11303,7 @@
       <c r="O62" s="76"/>
       <c r="P62" s="76"/>
     </row>
-    <row r="63" spans="1:16" s="23" customFormat="1" ht="30">
+    <row r="63" spans="1:16" s="23" customFormat="1" ht="37.5" customHeight="1">
       <c r="A63" s="23">
         <v>3</v>
       </c>
@@ -11135,7 +11328,9 @@
         <v>766</v>
       </c>
       <c r="O63" s="75"/>
-      <c r="P63" s="75"/>
+      <c r="P63" s="75" t="s">
+        <v>771</v>
+      </c>
     </row>
     <row r="64" spans="1:16" s="23" customFormat="1" ht="39">
       <c r="A64" s="23">
@@ -11162,9 +11357,11 @@
         <v>766</v>
       </c>
       <c r="O64" s="75"/>
-      <c r="P64" s="75"/>
-    </row>
-    <row r="65" spans="1:16" s="23" customFormat="1" ht="28.15" customHeight="1">
+      <c r="P64" s="75" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" s="23" customFormat="1" ht="39" customHeight="1">
       <c r="A65" s="23">
         <v>0</v>
       </c>
@@ -11189,7 +11386,9 @@
         <v>766</v>
       </c>
       <c r="O65" s="75"/>
-      <c r="P65" s="75"/>
+      <c r="P65" s="75" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="66" spans="1:16" s="23" customFormat="1" ht="39">
       <c r="A66" s="23">
@@ -11216,9 +11415,11 @@
         <v>766</v>
       </c>
       <c r="O66" s="75"/>
-      <c r="P66" s="75"/>
-    </row>
-    <row r="67" spans="1:16" s="23" customFormat="1" ht="30">
+      <c r="P66" s="75" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" s="23" customFormat="1" ht="42" customHeight="1">
       <c r="A67" s="23">
         <v>0</v>
       </c>
@@ -11243,7 +11444,9 @@
         <v>766</v>
       </c>
       <c r="O67" s="75"/>
-      <c r="P67" s="75"/>
+      <c r="P67" s="75" t="s">
+        <v>831</v>
+      </c>
     </row>
     <row r="68" spans="1:16" ht="39">
       <c r="A68" s="9">
@@ -11272,7 +11475,9 @@
       <c r="M68" s="9"/>
       <c r="N68" s="26"/>
       <c r="O68" s="76"/>
-      <c r="P68" s="76"/>
+      <c r="P68" s="76" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="69" spans="1:16" ht="30" hidden="1" customHeight="1">
       <c r="A69" s="9">
@@ -11335,7 +11540,9 @@
       <c r="M70" s="9"/>
       <c r="N70" s="26"/>
       <c r="O70" s="76"/>
-      <c r="P70" s="76"/>
+      <c r="P70" s="76" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="71" spans="1:16" ht="77.25">
       <c r="A71" s="9">
@@ -11366,7 +11573,9 @@
       <c r="M71" s="9"/>
       <c r="N71" s="26"/>
       <c r="O71" s="76"/>
-      <c r="P71" s="76"/>
+      <c r="P71" s="76" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="72" spans="1:16" s="23" customFormat="1" ht="30">
       <c r="A72" s="23">
@@ -11393,7 +11602,9 @@
         <v>766</v>
       </c>
       <c r="O72" s="75"/>
-      <c r="P72" s="75"/>
+      <c r="P72" s="75" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="73" spans="1:16" ht="26.25" hidden="1">
       <c r="A73" s="9">
@@ -11486,7 +11697,9 @@
         <v>766</v>
       </c>
       <c r="O75" s="75"/>
-      <c r="P75" s="75"/>
+      <c r="P75" s="75" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="76" spans="1:16" s="23" customFormat="1" ht="40.9" customHeight="1">
       <c r="A76" s="23">
@@ -11516,7 +11729,9 @@
         <v>766</v>
       </c>
       <c r="O76" s="75"/>
-      <c r="P76" s="75"/>
+      <c r="P76" s="75" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="77" spans="1:16" ht="39">
       <c r="A77" s="9">
@@ -11545,7 +11760,9 @@
       <c r="M77" s="9"/>
       <c r="N77" s="26"/>
       <c r="O77" s="76"/>
-      <c r="P77" s="76"/>
+      <c r="P77" s="76" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="78" spans="1:16" ht="39">
       <c r="A78" s="9">
@@ -11574,7 +11791,9 @@
       <c r="M78" s="9"/>
       <c r="N78" s="26"/>
       <c r="O78" s="76"/>
-      <c r="P78" s="76"/>
+      <c r="P78" s="76" t="s">
+        <v>842</v>
+      </c>
     </row>
     <row r="79" spans="1:16" ht="26.25" hidden="1">
       <c r="A79" s="9">
@@ -11635,7 +11854,9 @@
       <c r="M80" s="9"/>
       <c r="N80" s="26"/>
       <c r="O80" s="76"/>
-      <c r="P80" s="76"/>
+      <c r="P80" s="76" t="s">
+        <v>815</v>
+      </c>
     </row>
     <row r="81" spans="1:16" ht="26.25">
       <c r="A81" s="9">
@@ -11664,7 +11885,9 @@
       <c r="M81" s="9"/>
       <c r="N81" s="26"/>
       <c r="O81" s="76"/>
-      <c r="P81" s="76"/>
+      <c r="P81" s="76" t="s">
+        <v>815</v>
+      </c>
     </row>
     <row r="82" spans="1:16" s="23" customFormat="1" ht="75" hidden="1">
       <c r="A82" s="23">
@@ -11725,7 +11948,9 @@
       <c r="M83" s="9"/>
       <c r="N83" s="26"/>
       <c r="O83" s="76"/>
-      <c r="P83" s="76"/>
+      <c r="P83" s="76" t="s">
+        <v>843</v>
+      </c>
     </row>
     <row r="84" spans="1:16" ht="39">
       <c r="A84" s="9">
@@ -11754,7 +11979,9 @@
       <c r="M84" s="9"/>
       <c r="N84" s="26"/>
       <c r="O84" s="76"/>
-      <c r="P84" s="76"/>
+      <c r="P84" s="76" t="s">
+        <v>843</v>
+      </c>
     </row>
     <row r="85" spans="1:16" ht="26.25">
       <c r="A85" s="9">
@@ -11783,7 +12010,9 @@
       <c r="M85" s="9"/>
       <c r="N85" s="26"/>
       <c r="O85" s="76"/>
-      <c r="P85" s="76"/>
+      <c r="P85" s="76" t="s">
+        <v>842</v>
+      </c>
     </row>
     <row r="86" spans="1:16" ht="26.25">
       <c r="A86" s="9">
@@ -11812,7 +12041,9 @@
       <c r="M86" s="9"/>
       <c r="N86" s="26"/>
       <c r="O86" s="76"/>
-      <c r="P86" s="76"/>
+      <c r="P86" s="76" t="s">
+        <v>843</v>
+      </c>
     </row>
     <row r="87" spans="1:16" ht="39">
       <c r="A87" s="9">
@@ -11846,7 +12077,9 @@
       <c r="O87" s="76" t="s">
         <v>807</v>
       </c>
-      <c r="P87" s="76"/>
+      <c r="P87" s="76" t="s">
+        <v>819</v>
+      </c>
     </row>
     <row r="88" spans="1:16" ht="55.15" hidden="1" customHeight="1">
       <c r="A88" s="9">
@@ -11916,7 +12149,9 @@
       <c r="O89" s="76" t="s">
         <v>807</v>
       </c>
-      <c r="P89" s="76"/>
+      <c r="P89" s="76" t="s">
+        <v>819</v>
+      </c>
     </row>
     <row r="90" spans="1:16" ht="26.25" customHeight="1">
       <c r="A90" s="9">
@@ -11946,9 +12181,11 @@
       <c r="M90" s="9"/>
       <c r="N90" s="26"/>
       <c r="O90" s="76"/>
-      <c r="P90" s="76"/>
-    </row>
-    <row r="91" spans="1:16" s="23" customFormat="1" ht="30">
+      <c r="P90" s="76" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" s="23" customFormat="1" ht="37.5" customHeight="1">
       <c r="A91" s="23">
         <v>0</v>
       </c>
@@ -11976,7 +12213,9 @@
         <v>766</v>
       </c>
       <c r="O91" s="75"/>
-      <c r="P91" s="75"/>
+      <c r="P91" s="75" t="s">
+        <v>844</v>
+      </c>
     </row>
     <row r="92" spans="1:16" ht="39" hidden="1">
       <c r="A92" s="9">
@@ -12072,7 +12311,9 @@
         <v>766</v>
       </c>
       <c r="O94" s="75"/>
-      <c r="P94" s="75"/>
+      <c r="P94" s="75" t="s">
+        <v>828</v>
+      </c>
     </row>
     <row r="95" spans="1:16" s="4" customFormat="1" ht="65.45" hidden="1" customHeight="1">
       <c r="A95" s="20">
@@ -12565,7 +12806,7 @@
       <c r="O110" s="77"/>
       <c r="P110" s="77"/>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" ht="26.25">
       <c r="A111" s="4"/>
       <c r="B111" s="60"/>
       <c r="C111" s="43"/>
@@ -12576,7 +12817,9 @@
       <c r="H111" s="46"/>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
-      <c r="K111" s="4"/>
+      <c r="K111" s="66" t="s">
+        <v>803</v>
+      </c>
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
       <c r="N111" s="26"/>
@@ -12602,16 +12845,16 @@
       <c r="J112" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="K112" s="66" t="s">
-        <v>803</v>
-      </c>
+      <c r="K112" s="76"/>
       <c r="L112" s="66" t="s">
         <v>804</v>
       </c>
       <c r="M112" s="66"/>
       <c r="N112" s="66"/>
       <c r="O112" s="76"/>
-      <c r="P112" s="76"/>
+      <c r="P112" s="76" t="s">
+        <v>845</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
